--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27030" windowHeight="7590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,46 @@
   </si>
   <si>
     <t>device_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -818,8 +858,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11">
-        <v>1</v>
+      <c r="A2" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -835,8 +875,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11">
-        <v>2</v>
+      <c r="A3" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -852,8 +892,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11">
-        <v>3</v>
+      <c r="A4" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -884,7 +924,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -924,8 +964,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="11">
-        <v>1</v>
+      <c r="A2" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
@@ -950,8 +990,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25">
-      <c r="A3" s="11">
-        <v>2</v>
+      <c r="A3" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -976,8 +1016,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25">
-      <c r="A4" s="11">
-        <v>3</v>
+      <c r="A4" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>22</v>
@@ -1002,8 +1042,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25">
-      <c r="A5" s="11">
-        <v>4</v>
+      <c r="A5" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>23</v>
@@ -1028,8 +1068,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.25">
-      <c r="A6" s="11">
-        <v>5</v>
+      <c r="A6" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1054,8 +1094,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.25">
-      <c r="A7" s="11">
-        <v>6</v>
+      <c r="A7" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1080,8 +1120,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25">
-      <c r="A8" s="11">
-        <v>7</v>
+      <c r="A8" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1106,8 +1146,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.25">
-      <c r="A9" s="11">
-        <v>8</v>
+      <c r="A9" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1132,8 +1172,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18">
-      <c r="A10" s="11">
-        <v>9</v>
+      <c r="A10" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>36</v>
@@ -1158,8 +1198,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18">
-      <c r="A11" s="11">
-        <v>10</v>
+      <c r="A11" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>37</v>
@@ -1243,7 +1283,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1283,8 +1323,8 @@
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="11">
-        <v>1</v>
+      <c r="A2" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -1308,8 +1348,8 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="11">
-        <v>2</v>
+      <c r="A3" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -1333,8 +1373,8 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="11">
-        <v>3</v>
+      <c r="A4" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -1358,8 +1398,8 @@
       <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="11">
-        <v>4</v>
+      <c r="A5" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -1383,8 +1423,8 @@
       <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="11">
-        <v>5</v>
+      <c r="A6" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -1515,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1924,5 +1964,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27030" windowHeight="7590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27030" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="1" r:id="rId1"/>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1555,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27030" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27030" windowHeight="7590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bbid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,10 +204,6 @@
   </si>
   <si>
     <t>incubhr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incubtemp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -412,6 +404,10 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -845,67 +841,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2">
         <v>2020</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3">
         <v>2020</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
       </c>
       <c r="D4">
         <v>2018</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +920,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -942,42 +938,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25">
       <c r="A2" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -986,24 +982,24 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25">
       <c r="A3" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -1012,24 +1008,24 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25">
       <c r="A4" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1038,24 +1034,24 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25">
       <c r="A5" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -1064,24 +1060,24 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.25">
       <c r="A6" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="8">
         <v>2</v>
@@ -1090,24 +1086,24 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.25">
       <c r="A7" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="8">
         <v>3</v>
@@ -1116,24 +1112,24 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25">
       <c r="A8" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="8">
         <v>2</v>
@@ -1142,24 +1138,24 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.25">
       <c r="A9" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="8">
         <v>2</v>
@@ -1168,24 +1164,24 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18">
       <c r="A10" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7">
         <v>4</v>
@@ -1194,24 +1190,24 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18">
       <c r="A11" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="F11" s="7">
         <v>5</v>
@@ -1220,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18">
@@ -1299,13 +1295,13 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -1324,13 +1320,13 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -1349,13 +1345,13 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -1374,13 +1370,13 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -1399,13 +1395,13 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -1424,13 +1420,13 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1555,13 +1551,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
     <col min="10" max="10" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1570,394 +1567,394 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="E1" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="I1" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="9">
         <v>198.9</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="9">
         <v>12</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J2" s="9">
         <v>1</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="9">
         <v>47</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" s="9">
         <v>12</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J3" s="9">
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" s="9">
         <v>12</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="9">
         <v>1</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="9">
         <v>950</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H5" s="9">
         <v>8</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J5" s="9">
         <v>1</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="9">
         <v>1350</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6" s="9">
         <v>8</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" s="9">
         <v>2</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="9">
         <v>10</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7" s="9">
         <v>8</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J7" s="9">
         <v>3</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="9">
         <v>20</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="9">
         <v>8</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J8" s="9">
         <v>2</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="9">
         <v>1500000</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9" s="9">
         <v>19</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J9" s="9">
         <v>2</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="9">
         <v>1000000</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="9">
         <v>19</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J10" s="9">
         <v>4</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="9">
         <v>100000</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H11" s="9">
         <v>19</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J11" s="9">
         <v>5</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L11" s="9"/>
     </row>

--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>incubtemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Fluorescence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +233,6 @@
   </si>
   <si>
     <t>indc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cons</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -408,6 +408,10 @@
   </si>
   <si>
     <t>BBid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,7 +905,7 @@
         <v>2018</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1556,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1567,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>59</v>
@@ -1588,7 +1592,7 @@
         <v>47</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>85</v>
@@ -1606,7 +1610,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -1618,7 +1622,7 @@
         <v>198.9</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="9">
         <v>12</v>
@@ -1630,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" s="9"/>
     </row>
@@ -1642,7 +1646,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -1654,7 +1658,7 @@
         <v>47</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="9">
         <v>12</v>
@@ -1666,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" s="9"/>
     </row>
@@ -1678,7 +1682,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -1690,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="9">
         <v>12</v>
@@ -1702,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" s="9"/>
     </row>
@@ -1714,7 +1718,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -1726,7 +1730,7 @@
         <v>950</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="9">
         <v>8</v>
@@ -1738,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5" s="9"/>
     </row>
@@ -1750,7 +1754,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -1762,7 +1766,7 @@
         <v>1350</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="9">
         <v>8</v>
@@ -1774,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" s="9"/>
     </row>
@@ -1786,7 +1790,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -1798,7 +1802,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="9">
         <v>8</v>
@@ -1810,7 +1814,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" s="9"/>
     </row>
@@ -1822,7 +1826,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -1834,7 +1838,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="9">
         <v>8</v>
@@ -1846,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="9"/>
     </row>
@@ -1858,7 +1862,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -1870,7 +1874,7 @@
         <v>1500000</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="9">
         <v>19</v>
@@ -1882,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" s="9"/>
     </row>
@@ -1894,7 +1898,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -1906,7 +1910,7 @@
         <v>1000000</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="9">
         <v>19</v>
@@ -1918,7 +1922,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" s="9"/>
     </row>
@@ -1930,7 +1934,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -1942,7 +1946,7 @@
         <v>100000</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="9">
         <v>19</v>
@@ -1954,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11" s="9"/>
     </row>

--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,25 +254,6 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>37</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37℃</t>
   </si>
   <si>
     <t>id</t>
@@ -419,7 +400,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,13 +443,6 @@
       <color rgb="FF000000"/>
       <name val="Delius"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -859,7 +833,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -876,7 +850,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -893,7 +867,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -942,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -954,10 +928,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -965,7 +939,7 @@
     </row>
     <row r="2" spans="1:8" ht="20.25">
       <c r="A2" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -991,7 +965,7 @@
     </row>
     <row r="3" spans="1:8" ht="20.25">
       <c r="A3" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>20</v>
@@ -1017,7 +991,7 @@
     </row>
     <row r="4" spans="1:8" ht="20.25">
       <c r="A4" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>21</v>
@@ -1043,7 +1017,7 @@
     </row>
     <row r="5" spans="1:8" ht="20.25">
       <c r="A5" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>22</v>
@@ -1069,7 +1043,7 @@
     </row>
     <row r="6" spans="1:8" ht="20.25">
       <c r="A6" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1095,7 +1069,7 @@
     </row>
     <row r="7" spans="1:8" ht="20.25">
       <c r="A7" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1121,7 +1095,7 @@
     </row>
     <row r="8" spans="1:8" ht="20.25">
       <c r="A8" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1147,7 +1121,7 @@
     </row>
     <row r="9" spans="1:8" ht="20.25">
       <c r="A9" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1173,7 +1147,7 @@
     </row>
     <row r="10" spans="1:8" ht="18">
       <c r="A10" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>35</v>
@@ -1199,7 +1173,7 @@
     </row>
     <row r="11" spans="1:8" ht="18">
       <c r="A11" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>36</v>
@@ -1299,13 +1273,13 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -1324,13 +1298,13 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -1349,13 +1323,13 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -1374,13 +1348,13 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -1399,13 +1373,13 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -1424,13 +1398,13 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1556,7 +1530,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1577,7 +1551,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>59</v>
@@ -1591,11 +1565,11 @@
       <c r="H1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
@@ -1604,7 +1578,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>43</v>
@@ -1627,8 +1601,8 @@
       <c r="H2" s="9">
         <v>12</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>61</v>
+      <c r="I2" s="12">
+        <v>37</v>
       </c>
       <c r="J2" s="9">
         <v>1</v>
@@ -1640,7 +1614,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>43</v>
@@ -1663,8 +1637,8 @@
       <c r="H3" s="9">
         <v>12</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>62</v>
+      <c r="I3" s="12">
+        <v>37</v>
       </c>
       <c r="J3" s="9">
         <v>1</v>
@@ -1676,7 +1650,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -1699,8 +1673,8 @@
       <c r="H4" s="9">
         <v>12</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>62</v>
+      <c r="I4" s="12">
+        <v>37</v>
       </c>
       <c r="J4" s="9">
         <v>1</v>
@@ -1712,7 +1686,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>43</v>
@@ -1735,8 +1709,8 @@
       <c r="H5" s="9">
         <v>8</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>62</v>
+      <c r="I5" s="12">
+        <v>37</v>
       </c>
       <c r="J5" s="9">
         <v>1</v>
@@ -1748,7 +1722,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>43</v>
@@ -1771,8 +1745,8 @@
       <c r="H6" s="9">
         <v>8</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>62</v>
+      <c r="I6" s="12">
+        <v>37</v>
       </c>
       <c r="J6" s="9">
         <v>2</v>
@@ -1784,7 +1758,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>43</v>
@@ -1807,8 +1781,8 @@
       <c r="H7" s="9">
         <v>8</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>62</v>
+      <c r="I7" s="12">
+        <v>37</v>
       </c>
       <c r="J7" s="9">
         <v>3</v>
@@ -1820,7 +1794,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>43</v>
@@ -1843,8 +1817,8 @@
       <c r="H8" s="9">
         <v>8</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>62</v>
+      <c r="I8" s="12">
+        <v>37</v>
       </c>
       <c r="J8" s="9">
         <v>2</v>
@@ -1856,7 +1830,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>43</v>
@@ -1879,8 +1853,8 @@
       <c r="H9" s="9">
         <v>19</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>62</v>
+      <c r="I9" s="12">
+        <v>37</v>
       </c>
       <c r="J9" s="9">
         <v>2</v>
@@ -1892,7 +1866,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>43</v>
@@ -1915,8 +1889,8 @@
       <c r="H10" s="9">
         <v>19</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>62</v>
+      <c r="I10" s="12">
+        <v>37</v>
       </c>
       <c r="J10" s="9">
         <v>4</v>
@@ -1928,7 +1902,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>43</v>
@@ -1951,8 +1925,8 @@
       <c r="H11" s="9">
         <v>19</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>62</v>
+      <c r="I11" s="12">
+        <v>37</v>
       </c>
       <c r="J11" s="9">
         <v>5</v>
